--- a/deployment test data/users/Resources.xlsx
+++ b/deployment test data/users/Resources.xlsx
@@ -635,7 +635,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -656,12 +656,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -949,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="96" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="96" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,42 +980,42 @@
       <c r="A1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="11"/>
-      <c r="AG1" s="11"/>
-      <c r="AH1" s="11"/>
-      <c r="AI1" s="11"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9"/>
     </row>
     <row r="2" spans="1:35" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -1197,10 +1191,10 @@
       <c r="W3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="X3" s="9" t="s">
+      <c r="X3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="Y3" s="9" t="s">
+      <c r="Y3" s="2" t="s">
         <v>55</v>
       </c>
       <c r="Z3" s="2">
@@ -1298,10 +1292,10 @@
       <c r="V4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="W4" s="9" t="s">
+      <c r="W4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="X4" s="9" t="s">
+      <c r="X4" s="2" t="s">
         <v>54</v>
       </c>
       <c r="Y4" s="7" t="s">
@@ -1402,10 +1396,10 @@
       <c r="V5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="W5" s="9" t="s">
+      <c r="W5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="X5" s="9" t="s">
+      <c r="X5" s="2" t="s">
         <v>61</v>
       </c>
       <c r="Y5" s="2" t="s">
@@ -1506,10 +1500,10 @@
       <c r="V6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="W6" s="9" t="s">
+      <c r="W6" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="X6" s="9" t="s">
+      <c r="X6" s="2" t="s">
         <v>68</v>
       </c>
       <c r="Y6" s="2" t="s">
@@ -2133,7 +2127,7 @@
       <c r="W12" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="X12" s="10" t="s">
+      <c r="X12" s="5" t="s">
         <v>99</v>
       </c>
       <c r="Y12" s="2" t="s">
